--- a/biology/Botanique/Thomandersiaceae/Thomandersiaceae.xlsx
+++ b/biology/Botanique/Thomandersiaceae/Thomandersiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Thomandersiaceae est une petite famille végétale introduite par le Angiosperm Phylogeny Website puis reconnue par la classification phylogénétique APG III (2009)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Thomandersiaceae est une petite famille végétale introduite par le Angiosperm Phylogeny Website puis reconnue par la classification phylogénétique APG III (2009).
 Ce sont des arbustes et des plantes buissonnantes originaires de l’ouest et du centre de l’Afrique.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Thomandersia, dérivé du nom du médecin et botaniste britannique Thomas Anderson (1832–1870), qui, en 1876, décrivit ce nouveau genre sous le nom de Scytanthus, nom qui fut ensuite abandonné[2], et renommé Thomandersia en 1891 par le botaniste français Henri Ernest Baillon[3], qui voulu ainsi honorer le premier descripteur de la plante.
-Anderson fut directeur du jardin botanique de Calcutta[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Thomandersia, dérivé du nom du médecin et botaniste britannique Thomas Anderson (1832–1870), qui, en 1876, décrivit ce nouveau genre sous le nom de Scytanthus, nom qui fut ensuite abandonné, et renommé Thomandersia en 1891 par le botaniste français Henri Ernest Baillon, qui voulu ainsi honorer le premier descripteur de la plante.
+Anderson fut directeur du jardin botanique de Calcutta.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Thomandersiaceae comprend un seul genre Thomandersia et six espèces qui étaient classées dans la famille Acanthaceae par la classification phylogénétique APG II (2003)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Thomandersiaceae comprend un seul genre Thomandersia et six espèces qui étaient classées dans la famille Acanthaceae par la classification phylogénétique APG II (2003).
 La taxinomie et la phylogénie de cette famille est incertaine.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 Jul 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 Jul 2010) :
 Thomandersia</t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 Jul 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 Jul 2010) :
 genre Thomandersia
 Thomandersia hensii
 Thomandersia laurifolia</t>
